--- a/Arquivos_LOG_Temp/dividendo_a_pagar.xlsx
+++ b/Arquivos_LOG_Temp/dividendo_a_pagar.xlsx
@@ -1,91 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servgasdistribuidora-my.sharepoint.com/personal/regis_servgas_com/Documents/Área de Trabalho/AUTOMACAO/Automação Carteira de Dividendos/Arquivos_LOG_Temp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0774E397196B685EE852F8365C9D3E7A9E5BEF47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F1BA58-F4F5-4542-B064-A91593D29E10}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha2!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planilha2'!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>PRODUTOS</t>
-  </si>
-  <si>
-    <t>TIPOS DE EVENTOS</t>
-  </si>
-  <si>
-    <t>DATA-COM</t>
-  </si>
-  <si>
-    <t>DATA- PAGAMENTO DIVIDENDOS</t>
-  </si>
-  <si>
-    <t>PREÇO UNITARIO</t>
-  </si>
-  <si>
-    <t>PREÇO DE FECHAMENTO DA AÇÃO</t>
-  </si>
-  <si>
-    <t>DATA DA AUTOMAÇÃO</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1" tint="0.14999847407452621"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1" tint="0.1499984740745262"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -103,28 +71,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -444,55 +471,2774 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" customWidth="1"/>
+    <col width="17.5546875" customWidth="1" min="1" max="1"/>
+    <col width="22.5546875" customWidth="1" min="2" max="2"/>
+    <col width="17.77734375" customWidth="1" min="3" max="3"/>
+    <col width="35.88671875" customWidth="1" min="4" max="4"/>
+    <col width="26.6640625" customWidth="1" min="5" max="5"/>
+    <col width="35.44140625" customWidth="1" min="6" max="6"/>
+    <col width="24.21875" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G2" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D14" s="3"/>
+    <row r="1" ht="26.4" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PRODUTOS</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TIPOS DE EVENTOS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DATA-COM</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>DATA- PAGAMENTO DIVIDENDOS</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PREÇO UNITARIO</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PREÇO DE FECHAMENTO DA AÇÃO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>DATA DA AUTOMAÇÃO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="G2" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ABBV34 - ABBVIE INC.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>R$ 0,365004</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>R$ 67,94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ABTT34 - ABBOTT LABORATORIES</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>R$ 0,167999</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>R$ 53,94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FCXO34 - FREEPORT-MCMORAN INC.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>R$ 0,185122</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>R$ 90,82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>H1RL34 - HORMEL FOODS CORP</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>R$ 1,045332</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>R$ 172,94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>M1AA34 - MID-AMERICA APARTMENT COMMUNITIES INC</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>R$ 1,360650</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>R$ 214,30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>E1OG34 - EOG RESOURCES INC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>15/10/2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>R$ 1,744471</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>R$ 364,95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GEHC34 - GE HEALTHCARE TECHNOLOGIES INC</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16/10/2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>R$ 0,013900</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>R$ 63,43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P1NR34 - PENTAIR PLC</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16/10/2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>R$ 1,232320</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>R$ 541,95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>COLG34 - COLGATE-PALMOLIVE COMPANY</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>17/10/2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>R$ 0,267610</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>R$ 80,47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CVSH34 - CVS HEALTH CORPORATION</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17/10/2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>R$ 0,243752</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>R$ 36,80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A1PA34 - APA CORP</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>18/10/2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>R$ 0,933560</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>R$ 146,89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BQYL39 - GLOBAL X NASDAQ 100 COVERED CALL ETF</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>18/10/2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>R$ 0,210590</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>R$ 33,80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>D1EL34 - DELL TECHNOLOGIES INC</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>18/10/2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>R$ 1,631125</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>R$ 681,69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ALOS3 - ALLOS S.A</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>21/10/2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>R$ 0,095110</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>R$ 22,01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BMGB3 - BANCO BMG S.A.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>21/10/2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>R$ 0,084000</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BMGB4 - BANCO BMG S.A.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>21/10/2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>R$ 0,084000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>R$ 4,06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CLXC34 - CLOROX COMPANY</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>21/10/2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>R$ 1,130131</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>R$ 223,02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LOWC34 - LOWES COMPANIES INC</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>21/10/2024</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>R$ 0,219993</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>R$ 77,32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>J1EG34 - JACOBS SOLUTIONS INC.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>R$ 0,537500</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>R$ 383,60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BAGY39 - WISDOMTREE YIELD ENHANCED US AGGREGATE BOND FUND</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>R$ 0,143375</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>R$ 61,60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BUSF39 - WISDOMTREE FLOATING RATE TREASURY FUND</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>R$ 0,166960</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>R$ 56,17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TEXA34 - TEXAS INSTRUMENTS INC.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>R$ 0,332996</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>R$ 76,37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BCSA34 - BANCO SANTANDER SA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>R$ 0,422885</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>R$ 27,83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>N1IS34 - NISOURCE INC</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>R$ 0,985000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>R$ 190,08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>L1WH34 - LAMB WESTON HOLDINGS INC</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>05/12/2024</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>R$ 0,662777</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>R$ 197,52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ITUB4 - ITAU UNIBANCO HOLDING S.A.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>R$ 0,017650</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>R$ 34,70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>JHSF3 - JHSF PARTICIPACOES S/A</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>R$ 0,030864</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>R$ 4,40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BBDC3 - BCO BRADESCO S.A.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>R$ 0,017249</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>R$ 13,06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BBDC4 - BCO BRADESCO S.A.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>R$ 0,018974</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>R$ 14,92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BEES3 - BANESTES S/A BANCO DO ESTADO DO ESPIRITO SANTO</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>R$ 0,022791</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>R$ 8,86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BEES4 - BANESTES S/A BANCO DO ESTADO DO ESPIRITO SANTO</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>R$ 0,022791</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>R$ 9,21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>F1EC34 - FIRSTENERGY CORP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>05/12/2024</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>R$ 1,572486</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>R$ 237,57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ARNC34 - HOWMET AEROSPACE INC.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>R$ 0,294445</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>R$ 580,18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ARMT34 - ARCELORMITTAL</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10/12/2024</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>R$ 0,531280</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>R$ 68,78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>WLMM3 - WLM PART. E COMÉRCIO DE MÁQUINAS E VEÍCULOS S.A.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>R$ 0,182296</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>R$ 28,09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>WLMM4 - WLM PART. E COMÉRCIO DE MÁQUINAS E VEÍCULOS S.A.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>R$ 0,200525</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>R$ 32,50</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>P1AC34 - PACCAR INC</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10/12/2024</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>R$ 0,570750</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>R$ 290,12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>K1RC34 - KROGER CO</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>05/12/2024</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>R$ 1,173010</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>R$ 314,02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>TJXC34 - TJX COMPANIES INC</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11/12/2024</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>R$ 1,389206</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>R$ 637,48</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>J1EF34 - JEFFERIES FINANCIAL GROUP INC</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>03/12/2024</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>R$ 1,295833</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>R$ 353,92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PETZ3 - PET CENTER COMERCIO E PARTICIPACOES S.A.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>R$ 0,288297</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>R$ 4,72</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TGTB34 - TARGET CORP</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>19/12/2024</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>R$ 4,063545</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>R$ 859,19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>A1MT34 - APPLIED MATERIALS INC</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>18/12/2024</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>R$ 0,153016</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>R$ 114,55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ALOS3 - ALLOS S.A</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>03/12/2024</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>R$ 0,095110</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>R$ 22,01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>C1NP34 - CENTERPOINT ENERGY INC</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>18/12/2024</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>R$ 0,777500</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>R$ 164,84</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MSFT34 - MICROSOFT CORPORATION</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>18/12/2024</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>R$ 0,128684</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>R$ 97,35</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>F1BH34 - FORTUNE BRANDS INNOVATIONS, INC.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>19/11/2024</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>17/12/2024</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>R$ 0,900160</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>R$ 493,75</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>T1EL34 - TE CONNECTIVITY PLC</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>19/11/2024</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>R$ 1,283333</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>R$ 411,66</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SPGI34 - S&amp;P GLOBAL INC</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>17/12/2024</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>R$ 0,093589</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>R$ 81,03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>T1MU34 - T-MOBILE US INC</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>18/12/2024</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>R$ 1,630000</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>R$ 592,35</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TSNF34 - TYSON FOODS INC</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>19/12/2024</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>R$ 1,861781</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>R$ 325,72</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>JHSF3 - JHSF PARTICIPACOES S/A</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>R$ 0,030864</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>R$ 4,40</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MCDC34 - MCDONALDS CORP.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>R$ 0,325727</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>R$ 84,99</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ITSA3 - ITAUSA S.A.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>R$ 0,023529</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>R$ 10,46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ITSA4 - ITAUSA S.A.</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>R$ 0,023529</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>R$ 10,47</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ITUB4 - ITAU UNIBANCO HOLDING S.A.</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>R$ 0,017650</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>R$ 34,70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BBDC3 - BCO BRADESCO S.A.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>R$ 0,017249</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>R$ 13,06</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BBDC4 - BCO BRADESCO S.A.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>R$ 0,018974</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>R$ 14,92</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BEES3 - BANESTES S/A BANCO DO ESTADO DO ESPIRITO SANTO</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>R$ 0,022791</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>R$ 8,86</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BEES4 - BANESTES S/A BANCO DO ESTADO DO ESPIRITO SANTO</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>R$ 0,022791</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>R$ 9,21</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TSMC34 - TAIWAN SEMICONDUCTOR MANUFACTURING CO LTD</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>10/12/2024</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>15/01/2025</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>R$ 0,322853</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>R$ 130,19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>G1RM34 - GARMIN LTD</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>11/12/2024</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>R$ 1,786580</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>R$ 459,44</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>WALM34 - WALMART INC.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>11/12/2024</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10/01/2025</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>R$ 0,043342</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>R$ 28,04</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>C1BS34 - PARAMOUNT GLOBAL</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>08/01/2025</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>R$ 0,185121</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>R$ 58,88</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>STMN34 - STMICROELECTRONICS NV</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>R$ 0,416608</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>R$ 157,22</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MDIA3 - M.DIAS BRANCO S.A. IND COM DE ALIMENTOS</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>R$ 0,060000</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>R$ 26,15</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B1TI34 - BRITISH AMERICAN TOBACCO PLC</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>18/12/2024</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>R$ 0,715213</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>R$ 39,63</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MULT3 - MULTIPLAN - EMPREEND IMOBILIARIOS S.A.</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>R$ 0,199043</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>R$ 25,44</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NOKI34 - NOKIA CORPORATION</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>31/01/2025</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>24/02/2025</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>R$ 0,157287</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>R$ 24,93</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>T1EL34 - TE CONNECTIVITY PLC</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>19/02/2025</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>R$ 1,581290</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>R$ 411,66</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ITSA3 - ITAUSA S.A.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>28/02/2025</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>R$ 0,023529</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>R$ 10,46</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ITSA4 - ITAUSA S.A.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>28/02/2025</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>R$ 0,023529</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>R$ 10,47</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>G1RM34 - GARMIN LTD</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DIVIDENDO</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>03/04/2025</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>R$ 1,786580</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>R$ 459,44</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <autoFilter ref="A1:G1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>